--- a/data/PlotSettings/PlotAdvSettingSeed.xlsx
+++ b/data/PlotSettings/PlotAdvSettingSeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/data/PlotSettings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B6C54E-9570-DC4F-9589-9BB7F0F5D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056EE713-D8E4-CB49-B579-E1D2408E8DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="-7300" windowWidth="51640" windowHeight="7300" xr2:uid="{38A9B911-E053-4144-B365-19C3C9D25E4D}"/>
+    <workbookView xWindow="-47820" yWindow="-7300" windowWidth="47120" windowHeight="7300" xr2:uid="{38A9B911-E053-4144-B365-19C3C9D25E4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0354B5B3-C8DD-894A-914F-A603E1E22F90}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
